--- a/Data/test_case.xlsx
+++ b/Data/test_case.xlsx
@@ -212,58 +212,58 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>{"tag":{"id":${tagid}}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"grant_type":"client_credential","appid":"wx1e007fa71e41c91c","secret":"11270f23ac1806db3328e3cbf3bae988"}</t>
+  </si>
+  <si>
+    <t>case01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>step_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取access_token接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交数据(post)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$.access_token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>json取值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>tagid</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"tag":{"id":${tagid}}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"grant_type":"client_credential","appid":"wx1e007fa71e41c91c","secret":"11270f23ac1806db3328e3cbf3bae988"}</t>
-  </si>
-  <si>
-    <t>case01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>step_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取access_token接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提交数据(post)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$.access_token</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>json取值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>$.tag.id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"tag" : {"name" : "kolo06"}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"tag":{"id":(.+?),"name":"kolo06"}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"tag":{"id":${tagid},"name":"kele02"}}</t>
+    <t>{"tag" : {"name" : "jay08"}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"tag":{"id":(.+?),"name":"jay08"}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"tag":{"id":${tagid},"name":"kay06"}}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -317,7 +317,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -332,6 +332,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -617,10 +620,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="176" zoomScaleNormal="176" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="176" zoomScaleNormal="176" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -633,7 +636,7 @@
     <col min="6" max="6" width="7.5" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.25" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="89.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="31.25" style="1" customWidth="1"/>
     <col min="10" max="10" width="12.25" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.5" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="12.25" style="1" bestFit="1" customWidth="1"/>
@@ -655,7 +658,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
@@ -667,7 +670,7 @@
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>7</v>
@@ -687,7 +690,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>33</v>
@@ -696,10 +699,10 @@
         <v>12</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>15</v>
@@ -708,7 +711,7 @@
         <v>16</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3" t="s">
@@ -724,10 +727,10 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>47</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -737,7 +740,7 @@
         <v>13</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>15</v>
@@ -746,7 +749,7 @@
         <v>16</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>20</v>
@@ -765,8 +768,8 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
       <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
@@ -792,7 +795,7 @@
         <v>20</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>66</v>
@@ -805,10 +808,10 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>42</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -827,16 +830,16 @@
         <v>16</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>21</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>23</v>
@@ -846,8 +849,8 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
       <c r="C6" s="2" t="s">
         <v>12</v>
       </c>
@@ -880,10 +883,10 @@
       </c>
     </row>
     <row r="7" spans="1:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="8" t="s">
         <v>43</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -902,7 +905,7 @@
         <v>16</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>20</v>
@@ -921,8 +924,8 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
       <c r="C8" s="2" t="s">
         <v>12</v>
       </c>
@@ -942,7 +945,7 @@
         <v>29</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>17</v>
@@ -955,10 +958,10 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="7" t="s">
         <v>48</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -977,7 +980,7 @@
         <v>16</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>20</v>
@@ -996,8 +999,8 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
       <c r="C10" s="2" t="s">
         <v>12</v>
       </c>
@@ -1025,6 +1028,9 @@
       <c r="N10" s="1" t="s">
         <v>55</v>
       </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="J16" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="8">
